--- a/Indicadores_template_2col.xlsx
+++ b/Indicadores_template_2col.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ateodocio/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AA531D-2582-774E-8CD2-555FEE908C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9CC269-7250-F445-AEDF-C588CAFEE7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -645,9 +645,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -842,37 +839,37 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1444,13 +1441,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ51"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1467,79 +1464,81 @@
     <col min="10" max="10" width="48.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="3.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="36.5" style="1" customWidth="1"/>
-    <col min="13" max="21" width="10.83203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="10.83203125" style="1" customWidth="1"/>
-    <col min="23" max="32" width="10.83203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="34" width="10.83203125" style="1" customWidth="1"/>
-    <col min="35" max="36" width="10.83203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="53" width="9.1640625" style="1" customWidth="1"/>
+    <col min="13" max="21" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="10.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="32" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="10.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.83203125" style="1" customWidth="1"/>
+    <col min="35" max="36" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="9.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="53" width="9.1640625" style="1" customWidth="1"/>
     <col min="54" max="55" width="8.83203125" style="1" customWidth="1"/>
     <col min="56" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="105">
+      <c r="B2" s="93">
         <v>45657</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="2"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="97" t="s">
+      <c r="L2" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
     </row>
     <row r="3" spans="1:36" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C3" s="10"/>
@@ -1549,77 +1548,77 @@
       <c r="G3" s="10"/>
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74">
+      <c r="L3" s="72"/>
+      <c r="M3" s="73">
         <v>2024</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="73">
         <v>2024</v>
       </c>
-      <c r="O3" s="74">
+      <c r="O3" s="73">
         <v>2024</v>
       </c>
-      <c r="P3" s="74">
+      <c r="P3" s="73">
         <v>2024</v>
       </c>
-      <c r="Q3" s="74">
+      <c r="Q3" s="73">
         <v>2024</v>
       </c>
-      <c r="R3" s="74">
+      <c r="R3" s="73">
         <v>2024</v>
       </c>
-      <c r="S3" s="74">
+      <c r="S3" s="73">
         <v>2024</v>
       </c>
-      <c r="T3" s="74">
+      <c r="T3" s="73">
         <v>2024</v>
       </c>
-      <c r="U3" s="74">
+      <c r="U3" s="73">
         <v>2024</v>
       </c>
-      <c r="V3" s="74">
+      <c r="V3" s="73">
         <v>2024</v>
       </c>
-      <c r="W3" s="74">
+      <c r="W3" s="73">
         <v>2024</v>
       </c>
-      <c r="X3" s="74">
+      <c r="X3" s="73">
         <v>2024</v>
       </c>
-      <c r="Y3" s="74">
+      <c r="Y3" s="73">
         <v>2025</v>
       </c>
-      <c r="Z3" s="74">
+      <c r="Z3" s="73">
         <v>2025</v>
       </c>
-      <c r="AA3" s="74">
+      <c r="AA3" s="73">
         <v>2025</v>
       </c>
-      <c r="AB3" s="74">
+      <c r="AB3" s="73">
         <v>2025</v>
       </c>
-      <c r="AC3" s="74">
+      <c r="AC3" s="73">
         <v>2025</v>
       </c>
-      <c r="AD3" s="74">
+      <c r="AD3" s="73">
         <v>2025</v>
       </c>
-      <c r="AE3" s="74">
+      <c r="AE3" s="73">
         <v>2025</v>
       </c>
-      <c r="AF3" s="74">
+      <c r="AF3" s="73">
         <v>2025</v>
       </c>
-      <c r="AG3" s="74">
+      <c r="AG3" s="73">
         <v>2025</v>
       </c>
-      <c r="AH3" s="74">
+      <c r="AH3" s="73">
         <v>2025</v>
       </c>
-      <c r="AI3" s="74">
+      <c r="AI3" s="73">
         <v>2025</v>
       </c>
-      <c r="AJ3" s="74">
+      <c r="AJ3" s="73">
         <v>2025</v>
       </c>
     </row>
@@ -1627,87 +1626,87 @@
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="95" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="88"/>
       <c r="H4" s="2"/>
       <c r="I4" s="10"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="75" t="s">
+      <c r="T4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="75" t="s">
+      <c r="X4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" s="75" t="s">
+      <c r="Y4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="75" t="s">
+      <c r="Z4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="75" t="s">
+      <c r="AA4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" s="75" t="s">
+      <c r="AB4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="75" t="s">
+      <c r="AC4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="75" t="s">
+      <c r="AD4" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="AE4" s="75" t="s">
+      <c r="AE4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="75" t="s">
+      <c r="AF4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AG4" s="75" t="s">
+      <c r="AG4" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="75" t="s">
+      <c r="AH4" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="AI4" s="75" t="s">
+      <c r="AI4" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="75" t="s">
+      <c r="AJ4" s="74" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1719,218 +1718,218 @@
         <v>20.786200000000001</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="81" t="str">
+      <c r="D5" s="18"/>
+      <c r="E5" s="80" t="str">
         <f>IF(F5&gt;0,"▲",IF(F5&lt;0,"▼","►"))</f>
         <v>►</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <f>+D5-C5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="89"/>
+      <c r="G5" s="88"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="99" t="s">
+      <c r="I5" s="76"/>
+      <c r="J5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="70" t="s">
+      <c r="L5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="71"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="70"/>
     </row>
     <row r="6" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="82" t="str">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="81" t="str">
         <f>IF(F6&gt;0,"▲",IF(F6&lt;0,"▼","►"))</f>
         <v>►</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="33">
         <f>+D6-C6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="89"/>
+      <c r="G6" s="88"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="98"/>
-      <c r="L6" s="62" t="s">
+      <c r="I6" s="76"/>
+      <c r="J6" s="96"/>
+      <c r="L6" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="63">
+      <c r="M6" s="62">
         <v>0.89</v>
       </c>
-      <c r="N6" s="63">
+      <c r="N6" s="62">
         <v>0.09</v>
       </c>
-      <c r="O6" s="63">
+      <c r="O6" s="62">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P6" s="63">
+      <c r="P6" s="62">
         <v>0.2</v>
       </c>
-      <c r="Q6" s="63">
+      <c r="Q6" s="62">
         <v>-0.19</v>
       </c>
-      <c r="R6" s="63">
+      <c r="R6" s="62">
         <v>0.38</v>
       </c>
-      <c r="S6" s="63">
+      <c r="S6" s="62">
         <v>1.05</v>
       </c>
-      <c r="T6" s="63">
+      <c r="T6" s="62">
         <v>0.01</v>
       </c>
-      <c r="U6" s="63">
+      <c r="U6" s="62">
         <v>0.05</v>
       </c>
-      <c r="V6" s="63">
+      <c r="V6" s="62">
         <v>0.55000000000000004</v>
       </c>
-      <c r="W6" s="63">
+      <c r="W6" s="62">
         <v>0.44</v>
       </c>
-      <c r="X6" s="63">
+      <c r="X6" s="62">
         <v>0.38</v>
       </c>
-      <c r="Y6" s="63">
+      <c r="Y6" s="62">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Z6" s="63">
+      <c r="Z6" s="62">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AA6" s="63">
+      <c r="AA6" s="62">
         <v>0.31</v>
       </c>
-      <c r="AB6" s="63">
+      <c r="AB6" s="62">
         <v>0.33</v>
       </c>
-      <c r="AC6" s="63">
+      <c r="AC6" s="62">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AD6" s="63">
+      <c r="AD6" s="62">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AE6" s="63">
+      <c r="AE6" s="62">
         <v>0.27</v>
       </c>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="64"/>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="64"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
     </row>
     <row r="7" spans="1:36" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="83" t="str">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="82" t="str">
         <f>IF(F7&gt;0,"▲",IF(F7&lt;0,"▼","►"))</f>
         <v>►</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="34">
         <f>+D7-C7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="89"/>
+      <c r="G7" s="88"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="98"/>
-      <c r="L7" s="65" t="s">
+      <c r="I7" s="76"/>
+      <c r="J7" s="96"/>
+      <c r="L7" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="30">
         <v>0.89</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="30">
         <v>0.99</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="30">
         <v>1.28</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="30">
         <v>1.48</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="30">
         <v>1.29</v>
       </c>
-      <c r="R7" s="31">
+      <c r="R7" s="30">
         <v>1.68</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="30">
         <v>2.74</v>
       </c>
-      <c r="T7" s="31">
+      <c r="T7" s="30">
         <v>2.75</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U7" s="30">
         <v>2.8</v>
       </c>
-      <c r="V7" s="31">
+      <c r="V7" s="30">
         <v>3.37</v>
       </c>
-      <c r="W7" s="31">
+      <c r="W7" s="30">
         <v>3.82</v>
       </c>
-      <c r="X7" s="31">
+      <c r="X7" s="30">
         <v>4.21</v>
       </c>
-      <c r="Y7" s="31">
+      <c r="Y7" s="30">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Z7" s="31">
+      <c r="Z7" s="30">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AA7" s="31">
+      <c r="AA7" s="30">
         <v>0.88</v>
       </c>
-      <c r="AB7" s="31">
+      <c r="AB7" s="30">
         <v>1.21</v>
       </c>
-      <c r="AC7" s="31">
+      <c r="AC7" s="30">
         <v>1.5</v>
       </c>
-      <c r="AD7" s="31">
+      <c r="AD7" s="30">
         <v>1.78</v>
       </c>
-      <c r="AE7" s="31">
+      <c r="AE7" s="30">
         <v>2.0499999999999998</v>
       </c>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="65"/>
+      <c r="AI7" s="65"/>
+      <c r="AJ7" s="65"/>
     </row>
     <row r="8" spans="1:36" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>
@@ -1940,71 +1939,71 @@
       <c r="G8" s="14"/>
       <c r="H8" s="2"/>
       <c r="I8" s="10"/>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="63">
+      <c r="M8" s="62">
         <v>4.88</v>
       </c>
-      <c r="N8" s="63">
+      <c r="N8" s="62">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O8" s="63">
+      <c r="O8" s="62">
         <v>4.42</v>
       </c>
-      <c r="P8" s="63">
+      <c r="P8" s="62">
         <v>4.6500000000000004</v>
       </c>
-      <c r="Q8" s="63">
+      <c r="Q8" s="62">
         <v>4.6900000000000004</v>
       </c>
-      <c r="R8" s="63">
+      <c r="R8" s="62">
         <v>4.9800000000000004</v>
       </c>
-      <c r="S8" s="63">
+      <c r="S8" s="62">
         <v>5.57</v>
       </c>
-      <c r="T8" s="63">
+      <c r="T8" s="62">
         <v>4.99</v>
       </c>
-      <c r="U8" s="63">
+      <c r="U8" s="62">
         <v>4.58</v>
       </c>
-      <c r="V8" s="63">
+      <c r="V8" s="62">
         <v>4.76</v>
       </c>
-      <c r="W8" s="63">
+      <c r="W8" s="62">
         <v>4.55</v>
       </c>
-      <c r="X8" s="63">
+      <c r="X8" s="62">
         <v>4.21</v>
       </c>
-      <c r="Y8" s="63">
+      <c r="Y8" s="62">
         <v>3.59</v>
       </c>
-      <c r="Z8" s="63">
+      <c r="Z8" s="62">
         <v>3.77</v>
       </c>
-      <c r="AA8" s="63">
+      <c r="AA8" s="62">
         <v>3.8</v>
       </c>
-      <c r="AB8" s="63">
+      <c r="AB8" s="62">
         <v>3.93</v>
       </c>
-      <c r="AC8" s="63">
+      <c r="AC8" s="62">
         <v>4.42</v>
       </c>
-      <c r="AD8" s="63">
+      <c r="AD8" s="62">
         <v>4.32</v>
       </c>
-      <c r="AE8" s="63">
+      <c r="AE8" s="62">
         <v>3.51</v>
       </c>
-      <c r="AF8" s="63"/>
-      <c r="AG8" s="63"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
     </row>
     <row r="9" spans="1:36" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2013,40 +2012,40 @@
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="89"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="88"/>
       <c r="H9" s="2"/>
       <c r="I9" s="10"/>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="65"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
     </row>
     <row r="10" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
@@ -2056,171 +2055,171 @@
         <v>0.1323</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="81" t="str">
+      <c r="D10" s="18"/>
+      <c r="E10" s="80" t="str">
         <f>IF($F$10&gt;0,"▲",IF($F$10&lt;0,"▼","►"))</f>
         <v>►</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <f>+D10-C10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="89"/>
+      <c r="G10" s="88"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="101" t="s">
+      <c r="I10" s="76"/>
+      <c r="J10" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="63">
+      <c r="M10" s="62">
         <v>0.4</v>
       </c>
-      <c r="N10" s="63">
+      <c r="N10" s="62">
         <v>0.49</v>
       </c>
-      <c r="O10" s="63">
+      <c r="O10" s="62">
         <v>0.44</v>
       </c>
-      <c r="P10" s="63">
+      <c r="P10" s="62">
         <v>0.21</v>
       </c>
-      <c r="Q10" s="63">
+      <c r="Q10" s="62">
         <v>0.17</v>
       </c>
-      <c r="R10" s="63">
+      <c r="R10" s="62">
         <v>0.22</v>
       </c>
-      <c r="S10" s="63">
+      <c r="S10" s="62">
         <v>0.32</v>
       </c>
-      <c r="T10" s="63">
+      <c r="T10" s="62">
         <v>0.22</v>
       </c>
-      <c r="U10" s="63">
+      <c r="U10" s="62">
         <v>0.28000000000000003</v>
       </c>
-      <c r="V10" s="63">
+      <c r="V10" s="62">
         <v>0.28000000000000003</v>
       </c>
-      <c r="W10" s="63">
+      <c r="W10" s="62">
         <v>0.05</v>
       </c>
-      <c r="X10" s="63">
+      <c r="X10" s="62">
         <v>0.51</v>
       </c>
-      <c r="Y10" s="63">
+      <c r="Y10" s="62">
         <v>0.41</v>
       </c>
-      <c r="Z10" s="63">
+      <c r="Z10" s="62">
         <v>0.48</v>
       </c>
-      <c r="AA10" s="63">
+      <c r="AA10" s="62">
         <v>0.43</v>
       </c>
-      <c r="AB10" s="63">
+      <c r="AB10" s="62">
         <v>0.49</v>
       </c>
-      <c r="AC10" s="63">
+      <c r="AC10" s="62">
         <v>0.3</v>
       </c>
-      <c r="AD10" s="63">
+      <c r="AD10" s="62">
         <v>0.39</v>
       </c>
-      <c r="AE10" s="63">
+      <c r="AE10" s="62">
         <v>0.31</v>
       </c>
-      <c r="AF10" s="63"/>
-      <c r="AG10" s="63"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
     </row>
     <row r="11" spans="1:36" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="83" t="str">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="82" t="str">
         <f>IF($F$11&gt;0,"▲",IF($F$11&lt;0,"▼","►"))</f>
         <v>►</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="34">
         <f>+D11-C11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="89"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="98"/>
-      <c r="L11" s="65" t="s">
+      <c r="I11" s="76"/>
+      <c r="J11" s="96"/>
+      <c r="L11" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>0.4</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <v>0.9</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <v>1.34</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <v>1.55</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <v>1.73</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <v>1.95</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="30">
         <v>2.27</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T11" s="30">
         <v>2.5</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="30">
         <v>2.79</v>
       </c>
-      <c r="V11" s="31">
+      <c r="V11" s="30">
         <v>3.08</v>
       </c>
-      <c r="W11" s="31">
+      <c r="W11" s="30">
         <v>3.13</v>
       </c>
-      <c r="X11" s="31">
+      <c r="X11" s="30">
         <v>3.65</v>
       </c>
-      <c r="Y11" s="31">
+      <c r="Y11" s="30">
         <v>0.41</v>
       </c>
-      <c r="Z11" s="31">
+      <c r="Z11" s="30">
         <v>0.9</v>
       </c>
-      <c r="AA11" s="31">
+      <c r="AA11" s="30">
         <v>1.33</v>
       </c>
-      <c r="AB11" s="31">
+      <c r="AB11" s="30">
         <v>1.83</v>
       </c>
-      <c r="AC11" s="31">
+      <c r="AC11" s="30">
         <v>2.13</v>
       </c>
-      <c r="AD11" s="31">
+      <c r="AD11" s="30">
         <v>2.5299999999999998</v>
       </c>
-      <c r="AE11" s="31">
+      <c r="AE11" s="30">
         <v>2.85</v>
       </c>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="65"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="65"/>
     </row>
     <row r="12" spans="1:36" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C12" s="10"/>
@@ -2230,71 +2229,71 @@
       <c r="G12" s="14"/>
       <c r="H12" s="2"/>
       <c r="I12" s="10"/>
-      <c r="L12" s="62" t="s">
+      <c r="L12" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="63">
+      <c r="M12" s="62">
         <v>4.76</v>
       </c>
-      <c r="N12" s="63">
+      <c r="N12" s="62">
         <v>4.6399999999999997</v>
       </c>
-      <c r="O12" s="63">
+      <c r="O12" s="62">
         <v>4.55</v>
       </c>
-      <c r="P12" s="63">
+      <c r="P12" s="62">
         <v>4.37</v>
       </c>
-      <c r="Q12" s="63">
+      <c r="Q12" s="62">
         <v>4.21</v>
       </c>
-      <c r="R12" s="63">
+      <c r="R12" s="62">
         <v>4.13</v>
       </c>
-      <c r="S12" s="63">
+      <c r="S12" s="62">
         <v>4.05</v>
       </c>
-      <c r="T12" s="63">
+      <c r="T12" s="62">
         <v>4</v>
       </c>
-      <c r="U12" s="63">
+      <c r="U12" s="62">
         <v>3.91</v>
       </c>
-      <c r="V12" s="63">
+      <c r="V12" s="62">
         <v>4.18</v>
       </c>
-      <c r="W12" s="63">
+      <c r="W12" s="62">
         <v>3.58</v>
       </c>
-      <c r="X12" s="63">
+      <c r="X12" s="62">
         <v>3.65</v>
       </c>
-      <c r="Y12" s="63">
+      <c r="Y12" s="62">
         <v>3.66</v>
       </c>
-      <c r="Z12" s="63">
+      <c r="Z12" s="62">
         <v>3.65</v>
       </c>
-      <c r="AA12" s="63">
+      <c r="AA12" s="62">
         <v>3.64</v>
       </c>
-      <c r="AB12" s="63">
+      <c r="AB12" s="62">
         <v>3.93</v>
       </c>
-      <c r="AC12" s="63">
+      <c r="AC12" s="62">
         <v>4.0599999999999996</v>
       </c>
-      <c r="AD12" s="63">
+      <c r="AD12" s="62">
         <v>4.24</v>
       </c>
-      <c r="AE12" s="63">
+      <c r="AE12" s="62">
         <v>4.2300000000000004</v>
       </c>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="63"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="64"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
     </row>
     <row r="13" spans="1:36" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -2303,40 +2302,40 @@
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="96"/>
-      <c r="G13" s="89"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="88"/>
       <c r="H13" s="2"/>
       <c r="I13" s="10"/>
-      <c r="L13" s="61" t="s">
+      <c r="L13" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="65"/>
     </row>
     <row r="14" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
@@ -2346,171 +2345,171 @@
         <v>21.524100000000001</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="81" t="str">
+      <c r="D14" s="18"/>
+      <c r="E14" s="80" t="str">
         <f>IF($F$14&gt;0,"▲",IF($F$14&lt;0,"▼","►"))</f>
         <v>►</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <f>+D14-C14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="89"/>
+      <c r="G14" s="88"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="101" t="s">
+      <c r="I14" s="76"/>
+      <c r="J14" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="62" t="s">
+      <c r="L14" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="63">
+      <c r="M14" s="62">
         <v>2.37</v>
       </c>
-      <c r="N14" s="63">
+      <c r="N14" s="62">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="O14" s="63">
+      <c r="O14" s="62">
         <v>-0.16</v>
       </c>
-      <c r="P14" s="63">
+      <c r="P14" s="62">
         <v>0.18</v>
       </c>
-      <c r="Q14" s="63">
+      <c r="Q14" s="62">
         <v>-1.28</v>
       </c>
-      <c r="R14" s="63">
+      <c r="R14" s="62">
         <v>0.87</v>
       </c>
-      <c r="S14" s="63">
+      <c r="S14" s="62">
         <v>3.29</v>
       </c>
-      <c r="T14" s="63">
+      <c r="T14" s="62">
         <v>-0.7</v>
       </c>
-      <c r="U14" s="63">
+      <c r="U14" s="62">
         <v>-0.72</v>
       </c>
-      <c r="V14" s="63">
+      <c r="V14" s="62">
         <v>1.46</v>
       </c>
-      <c r="W14" s="63">
+      <c r="W14" s="62">
         <v>1.73</v>
       </c>
-      <c r="X14" s="63">
+      <c r="X14" s="62">
         <v>-0.04</v>
       </c>
-      <c r="Y14" s="63">
+      <c r="Y14" s="62">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="Z14" s="63">
+      <c r="Z14" s="62">
         <v>-0.39</v>
       </c>
-      <c r="AA14" s="63">
+      <c r="AA14" s="62">
         <v>-0.08</v>
       </c>
-      <c r="AB14" s="63">
+      <c r="AB14" s="62">
         <v>-0.21</v>
       </c>
-      <c r="AC14" s="63">
+      <c r="AC14" s="62">
         <v>0.23</v>
       </c>
-      <c r="AD14" s="63">
+      <c r="AD14" s="62">
         <v>-0.1</v>
       </c>
-      <c r="AE14" s="63">
+      <c r="AE14" s="62">
         <v>0.13</v>
       </c>
-      <c r="AF14" s="63"/>
-      <c r="AG14" s="63"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
     </row>
     <row r="15" spans="1:36" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="84" t="str">
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="83" t="str">
         <f>IF($F$15&gt;0,"▲",IF($F$15&lt;0,"▼","►"))</f>
         <v>►</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="34">
         <f>+D15-C15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="89"/>
+      <c r="G15" s="88"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="98"/>
-      <c r="L15" s="65" t="s">
+      <c r="I15" s="77"/>
+      <c r="J15" s="96"/>
+      <c r="L15" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="30">
         <v>2.37</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="30">
         <v>1.25</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="30">
         <v>1.0900000000000001</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="30">
         <v>1.27</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="30">
         <v>-0.02</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="30">
         <v>0.85</v>
       </c>
-      <c r="S15" s="31">
+      <c r="S15" s="30">
         <v>4.16</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="30">
         <v>3.43</v>
       </c>
-      <c r="U15" s="31">
+      <c r="U15" s="30">
         <v>2.69</v>
       </c>
-      <c r="V15" s="31">
+      <c r="V15" s="30">
         <v>4.18</v>
       </c>
-      <c r="W15" s="31">
+      <c r="W15" s="30">
         <v>5.98</v>
       </c>
-      <c r="X15" s="31">
+      <c r="X15" s="30">
         <v>5.95</v>
       </c>
-      <c r="Y15" s="31">
+      <c r="Y15" s="30">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="Z15" s="31">
+      <c r="Z15" s="30">
         <v>-0.53</v>
       </c>
-      <c r="AA15" s="31">
+      <c r="AA15" s="30">
         <v>-0.61</v>
       </c>
-      <c r="AB15" s="31">
+      <c r="AB15" s="30">
         <v>-0.82</v>
       </c>
-      <c r="AC15" s="31">
+      <c r="AC15" s="30">
         <v>-0.59</v>
       </c>
-      <c r="AD15" s="31">
+      <c r="AD15" s="30">
         <v>-0.69</v>
       </c>
-      <c r="AE15" s="31">
+      <c r="AE15" s="30">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
     </row>
     <row r="16" spans="1:36" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C16" s="10"/>
@@ -2520,71 +2519,71 @@
       <c r="G16" s="14"/>
       <c r="H16" s="2"/>
       <c r="I16" s="10"/>
-      <c r="L16" s="67" t="s">
+      <c r="L16" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="68">
+      <c r="M16" s="67">
         <v>5.24</v>
       </c>
-      <c r="N16" s="68">
+      <c r="N16" s="67">
         <v>3.67</v>
       </c>
-      <c r="O16" s="68">
+      <c r="O16" s="67">
         <v>4.03</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="67">
         <v>5.54</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="67">
         <v>6.19</v>
       </c>
-      <c r="R16" s="68">
+      <c r="R16" s="67">
         <v>7.67</v>
       </c>
-      <c r="S16" s="68">
+      <c r="S16" s="67">
         <v>10.36</v>
       </c>
-      <c r="T16" s="68">
+      <c r="T16" s="67">
         <v>8.0299999999999994</v>
       </c>
-      <c r="U16" s="68">
+      <c r="U16" s="67">
         <v>6.5</v>
       </c>
-      <c r="V16" s="68">
+      <c r="V16" s="67">
         <v>7.68</v>
       </c>
-      <c r="W16" s="68">
+      <c r="W16" s="67">
         <v>7.6</v>
       </c>
-      <c r="X16" s="68">
+      <c r="X16" s="67">
         <v>5.95</v>
       </c>
-      <c r="Y16" s="68">
+      <c r="Y16" s="67">
         <v>3.34</v>
       </c>
-      <c r="Z16" s="68">
+      <c r="Z16" s="67">
         <v>4.08</v>
       </c>
-      <c r="AA16" s="68">
+      <c r="AA16" s="67">
         <v>4.16</v>
       </c>
-      <c r="AB16" s="68">
+      <c r="AB16" s="67">
         <v>3.76</v>
       </c>
-      <c r="AC16" s="68">
+      <c r="AC16" s="67">
         <v>5.34</v>
       </c>
-      <c r="AD16" s="68">
+      <c r="AD16" s="67">
         <v>4.33</v>
       </c>
-      <c r="AE16" s="68">
+      <c r="AE16" s="67">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
     </row>
     <row r="17" spans="1:11" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -2593,38 +2592,34 @@
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="89"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="88"/>
       <c r="H17" s="2"/>
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>8.4542380000000001</v>
       </c>
-      <c r="C18" s="29">
-        <v>8.5507000000000009</v>
-      </c>
-      <c r="D18" s="76">
-        <v>8.5507000000000009</v>
-      </c>
-      <c r="E18" s="85" t="str">
+      <c r="C18" s="28"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="84" t="str">
         <f>IF($F$18&gt;0,"▲",IF($F$18&lt;0,"▼","►"))</f>
-        <v>▲</v>
-      </c>
-      <c r="F18" s="36">
+        <v>▼</v>
+      </c>
+      <c r="F18" s="35">
         <f>+D18-B18</f>
-        <v>9.6462000000000714E-2</v>
-      </c>
-      <c r="G18" s="89"/>
+        <v>-8.4542380000000001</v>
+      </c>
+      <c r="G18" s="88"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="78"/>
+      <c r="I18" s="77"/>
     </row>
     <row r="19" spans="1:11" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H19" s="2"/>
@@ -2636,262 +2631,254 @@
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="100" t="s">
+      <c r="E20" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="100" t="s">
+      <c r="F20" s="99"/>
+      <c r="G20" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="96"/>
+      <c r="H20" s="99"/>
     </row>
     <row r="21" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="39">
         <v>10</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="93">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E21" s="86" t="str">
+      <c r="C21" s="43"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="85" t="str">
         <f>IF($F$21&gt;0,"▲",IF($F$21&lt;0,"▼","►"))</f>
-        <v>▲</v>
-      </c>
-      <c r="F21" s="33">
+        <v>►</v>
+      </c>
+      <c r="F21" s="32">
         <f>+D21-C21</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G21" s="90" t="str">
+        <v>0</v>
+      </c>
+      <c r="G21" s="89" t="str">
         <f>IF($H$21&gt;0,"▲",IF($H$21&lt;0,"▼","►"))</f>
         <v>▼</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="32">
         <f>+D21-B21</f>
-        <v>-9.9049999999999994</v>
-      </c>
-      <c r="I21" s="79"/>
-      <c r="K21" s="80"/>
+        <v>-10</v>
+      </c>
+      <c r="I21" s="78"/>
+      <c r="K21" s="79"/>
     </row>
     <row r="22" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>10.244</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46">
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="E22" s="87" t="str">
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="86" t="str">
         <f>IF($F$22&gt;0,"▲",IF($F$22&lt;0,"▼","►"))</f>
-        <v>▲</v>
-      </c>
-      <c r="F22" s="34">
+        <v>►</v>
+      </c>
+      <c r="F22" s="33">
         <f>+D22-C22</f>
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="G22" s="91" t="str">
+        <v>0</v>
+      </c>
+      <c r="G22" s="90" t="str">
         <f>IF($H$22&gt;0,"▲",IF($H$22&lt;0,"▼","►"))</f>
         <v>▼</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="33">
         <f>+D22-B22</f>
-        <v>-10.1693</v>
-      </c>
-      <c r="I22" s="79"/>
-      <c r="K22" s="80"/>
+        <v>-10.244</v>
+      </c>
+      <c r="I22" s="78"/>
+      <c r="K22" s="79"/>
     </row>
     <row r="23" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <v>10.6327</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="87" t="str">
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="86" t="str">
         <f>IF($F$23&gt;0,"▲",IF($F$23&lt;0,"▼","►"))</f>
         <v>►</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="33">
         <f>+D23-C23</f>
         <v>0</v>
       </c>
-      <c r="G23" s="91" t="str">
+      <c r="G23" s="90" t="str">
         <f>IF($H$23&gt;0,"▲",IF($H$23&lt;0,"▼","►"))</f>
         <v>▼</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="33">
         <f>+D23-B23</f>
         <v>-10.6327</v>
       </c>
-      <c r="I23" s="79"/>
-      <c r="K23" s="80"/>
+      <c r="I23" s="78"/>
+      <c r="K23" s="79"/>
     </row>
     <row r="24" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="37">
         <v>10.7692</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48">
-        <v>7.8E-2</v>
-      </c>
-      <c r="E24" s="88" t="str">
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="87" t="str">
         <f>IF($F$24&gt;0,"▲",IF($F$24&lt;0,"▼","►"))</f>
-        <v>▲</v>
-      </c>
-      <c r="F24" s="35">
+        <v>►</v>
+      </c>
+      <c r="F24" s="34">
         <f>+D24-C24</f>
-        <v>7.8E-2</v>
-      </c>
-      <c r="G24" s="92" t="str">
+        <v>0</v>
+      </c>
+      <c r="G24" s="91" t="str">
         <f>IF($H$24&gt;0,"▲",IF($H$24&lt;0,"▼","►"))</f>
         <v>▼</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="34">
         <f>+D24-B24</f>
-        <v>-10.6912</v>
-      </c>
-      <c r="I24" s="79"/>
-      <c r="K24" s="80"/>
+        <v>-10.7692</v>
+      </c>
+      <c r="I24" s="78"/>
+      <c r="K24" s="79"/>
     </row>
     <row r="25" spans="1:11" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:11" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="51">
         <v>45652</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="100" t="s">
+      <c r="E26" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="96"/>
+      <c r="F26" s="99"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="48">
         <v>9.74E-2</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44">
-        <v>0.205125</v>
-      </c>
-      <c r="E27" s="86" t="str">
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="85" t="str">
         <f>IF($F$27&gt;0,"▲",IF($F$27&lt;0,"▼","►"))</f>
-        <v>▲</v>
-      </c>
-      <c r="F27" s="33">
+        <v>►</v>
+      </c>
+      <c r="F27" s="32">
         <f>+D27-C27</f>
-        <v>0.205125</v>
-      </c>
-      <c r="G27" s="90" t="str">
+        <v>0</v>
+      </c>
+      <c r="G27" s="89" t="str">
         <f>IF($H$27&gt;0,"▲",IF($H$27&lt;0,"▼","►"))</f>
-        <v>▲</v>
-      </c>
-      <c r="H27" s="33">
+        <v>▼</v>
+      </c>
+      <c r="H27" s="32">
         <f>+D27-B27</f>
-        <v>0.107725</v>
+        <v>-9.74E-2</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="58" t="s">
+      <c r="J27" s="57" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B28" s="49">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="87" t="str">
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="86" t="str">
         <f>IF($F$28&gt;0,"▲",IF($F$28&lt;0,"▼","►"))</f>
         <v>►</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="33">
         <f>+D28-C28</f>
         <v>0</v>
       </c>
-      <c r="G28" s="91" t="str">
+      <c r="G28" s="90" t="str">
         <f>IF($H$28&gt;0,"▲",IF($H$28&lt;0,"▼","►"))</f>
         <v>▼</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="33">
         <f>+D28-B28</f>
         <v>-9.7900000000000001E-2</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="104"/>
+      <c r="J28" s="100"/>
     </row>
     <row r="29" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="50">
+      <c r="B29" s="49">
         <v>9.9699999999999997E-2</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="87" t="str">
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="86" t="str">
         <f>IF($F$29&gt;0,"▲",IF($F$29&lt;0,"▼","►"))</f>
         <v>►</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="33">
         <f>+D29-C29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="91" t="str">
+      <c r="G29" s="90" t="str">
         <f>IF($H$29&gt;0,"▲",IF($H$29&lt;0,"▼","►"))</f>
         <v>▼</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="33">
         <f>+D29-B29</f>
         <v>-9.9699999999999997E-2</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="98"/>
+      <c r="J29" s="96"/>
     </row>
     <row r="30" spans="1:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="50">
         <v>0.10059999999999999</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="88" t="str">
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="87" t="str">
         <f>IF($F$30&gt;0,"▲",IF($F$30&lt;0,"▼","►"))</f>
         <v>►</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="34">
         <f>+D30-C30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="92" t="str">
+      <c r="G30" s="91" t="str">
         <f>IF($H$30&gt;0,"▲",IF($H$30&lt;0,"▼","►"))</f>
         <v>▼</v>
       </c>
-      <c r="H30" s="35">
+      <c r="H30" s="34">
         <f>+D30-B30</f>
         <v>-0.10059999999999999</v>
       </c>
@@ -2905,10 +2892,10 @@
       <c r="B32" s="11"/>
     </row>
     <row r="33" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="56"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2916,15 +2903,15 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="101" t="s">
+      <c r="J33" s="97" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="54"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2932,13 +2919,13 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="98"/>
+      <c r="J34" s="96"/>
     </row>
     <row r="35" spans="1:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="55"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -2950,45 +2937,45 @@
     </row>
     <row r="36" spans="1:13" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:13" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
     </row>
     <row r="38" spans="1:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="56" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
-      <c r="J40" s="103" t="s">
+      <c r="J40" s="95" t="s">
         <v>59</v>
       </c>
       <c r="K40" s="13"/>
@@ -2996,119 +2983,126 @@
       <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46">
+      <c r="B41" s="45"/>
+      <c r="C41" s="45">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="J41" s="98"/>
+      <c r="J41" s="96"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
     </row>
     <row r="42" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46">
+      <c r="B42" s="45"/>
+      <c r="C42" s="45">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="J42" s="98"/>
+      <c r="J42" s="96"/>
     </row>
     <row r="43" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="46">
+      <c r="B43" s="45">
         <v>2.93922E-2</v>
       </c>
-      <c r="C43" s="46">
+      <c r="C43" s="45">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="45">
         <v>2.7317999999999999E-2</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="45">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="45">
         <v>2.6726799999999998E-2</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="45">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="45">
         <v>2.3759300000000001E-2</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="45">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="45">
         <v>2.3337500000000001E-2</v>
       </c>
-      <c r="C47" s="46">
+      <c r="C47" s="45">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="46">
+      <c r="B48" s="45">
         <v>2.4055900000000002E-2</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C48" s="45">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="46">
+      <c r="B49" s="45">
         <v>2.81427E-2</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C49" s="45">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="48">
+      <c r="B50" s="47">
         <v>2.9994099999999999E-2</v>
       </c>
-      <c r="C50" s="48">
+      <c r="C50" s="47">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="L2:AJ2"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="J40:J42"/>
     <mergeCell ref="J33:J34"/>
@@ -3118,13 +3112,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="L2:AJ2"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E7">
     <cfRule type="expression" dxfId="41" priority="25">
